--- a/Results/Results_MackeyGlass_Noisy.xlsx
+++ b/Results/Results_MackeyGlass_Noisy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06041244782154457</v>
+        <v>0.06438380326231156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2494207920049544</v>
+        <v>0.2732419228784578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04855139873685466</v>
+        <v>0.05420221698408226</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08489721657793617</v>
+        <v>0.07927034279294272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3505094026389279</v>
+        <v>0.3364197172964664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06418204370663758</v>
+        <v>0.06428912310908824</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 8, max\_features: 8 \\</t>
+          <t>max\_depth: 8, max\_features: 4 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.062085310095943</v>
+        <v>0.06450988064035451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2563274254628172</v>
+        <v>0.2737769895173076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05036034088493669</v>
+        <v>0.05518871299457774</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>max\_depth: 16, max\_features: 2, n\_estimators: 100 \\</t>
+          <t>max\_depth: 16, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
     </row>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06990090633586364</v>
+        <v>0.06937735859048499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.288595149656187</v>
+        <v>0.2944343438094031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06003902564735366</v>
+        <v>0.06271456155803203</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09880714204936356</v>
+        <v>0.09208029190316556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4079383722125796</v>
+        <v>0.3907845567358508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09107191963986012</v>
+        <v>0.08817227716543047</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06697311193964395</v>
+        <v>0.06476272244986626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2765073627270775</v>
+        <v>0.2748500386183926</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05399033281793703</v>
+        <v>0.05453489311870209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 8, max\_features: 2, n\_estimators: 150 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 8, max\_features: 2, n\_estimators: 100 \\</t>
         </is>
       </c>
     </row>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08554148716155544</v>
+        <v>0.08200736884171947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3531693590721864</v>
+        <v>0.348035530942784</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07544647074638461</v>
+        <v>0.07688075909176315</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>eta: 0.5, eval\_metric: rmse, gamma: 0.3, max\_depth: 8, min\_child\_weight: 2, n\_estimators: 50 \\</t>
+          <t>eta: 0.3, eval\_metric: rmse, gamma: 0.3, max\_depth: 8, min\_child\_weight: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
     </row>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06513731641223595</v>
+        <v>0.06652811410901451</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2689280377548826</v>
+        <v>0.2823422802558423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05252431593511753</v>
+        <v>0.05580784002503025</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 16, max\_features: 2, n\_estimators: 150, verbosity: -1 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 20, max\_features: 2, n\_estimators: 100, verbosity: -1 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07191779770742603</v>
+        <v>0.07224694207787281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.296922152805754</v>
+        <v>0.3066127251759028</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06098416381833083</v>
+        <v>0.06326897239826663</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07965672547121461</v>
+        <v>0.08156077650097722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3288733410412504</v>
+        <v>0.3461402134289981</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06708054628135049</v>
+        <v>0.07399118824055177</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0677154929886848</v>
+        <v>0.06728110704033036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2795723812108212</v>
+        <v>0.2855379478933748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05686633231335261</v>
+        <v>0.05689309152903082</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06404627610440664</v>
+        <v>0.05954406614599555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2644235333439378</v>
+        <v>0.2527022994191128</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05243441403144741</v>
+        <v>0.04987399249457387</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.06826202729079808</v>
+        <v>0.0656863773845216</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2818288204614479</v>
+        <v>0.2787699880099058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05374578361275072</v>
+        <v>0.05777485209635089</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.07940531994405908</v>
+        <v>0.06922341959479611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3278353800256203</v>
+        <v>0.2937810337367341</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06677092125148675</v>
+        <v>0.05858799021058</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,18 +881,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09450976439481566</v>
+        <v>0.09198984027712515</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3901960794104747</v>
+        <v>0.390400684162712</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08481751012826147</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6]</t>
-        </is>
+        <v>0.08796375907150183</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -910,18 +908,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.08276248855630471</v>
+        <v>0.09198983245340625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3416958952729739</v>
+        <v>0.390400650959206</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07276985716360398</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 26, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 89, 89, 90, 90, 91, 92, 93, 4, 5, 5, 6, 7, 7, 8, 9, 9, 10, 11, 12, 13, 14, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 24, 25, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 66, 67, 67, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 77, 78, 79, 80, 81, 82, 82, 14, 15, 16, 17, 17, 17, 18, 19, 20, 21, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 43, 44, 44, 45, 46, 47, 48, 49, 49, 50, 51, 51, 52, 53, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 33, 34, 35, 36, 37, 38, 38, 39, 40, 41, 42, 43, 44, 45, 45, 46, 46, 46, 46, 47, 48, 48, 48, 49, 49, 50, 51, 52, 53, 54, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 24, 25, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 46, 47, 48, 49, 50, 51, 51, 52, 53, 54, 54, 55, 56, 57, 58, 59, 60, 61, 29, 30, 31, 32, 33, 34, 35, 35, 36, 36, 37, 38, 39, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 50, 51, 52, 53, 54, 54, 55, 33, 34, 35, 35, 35, 35, 36, 37, 38, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 49, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 36, 37, 38, 39, 40, 41, 41, 42, 43, 43, 44, 45, 46, 47, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 38, 39, 40, 41, 41, 42, 43, 43, 44, 45, 40, 41, 42, 43, 44, 45, 40, 41, 42, 42, 42, 42, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 41, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31, 31]</t>
-        </is>
+        <v>0.08796397304606386</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.09377836002849443</v>
+        <v>0.08540516252967069</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3871763796151179</v>
+        <v>0.3624556122955044</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08471115138122931</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9]</t>
-        </is>
+        <v>0.08001972482643299</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.5, omega: 1000 \\</t>
+          <t>mu: 0.3, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.09642759670611641</v>
+        <v>0.09016155830730999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.398114104110125</v>
+        <v>0.3826415389168029</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08701387866965697</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.08577321599177699</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.2, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.2, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.06152895386315654</v>
+        <v>0.07820762951253331</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2540304350705655</v>
+        <v>0.3319096106315264</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05116063351128448</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 26, 27, 28, 29, 30, 31, 31, 32, 33, 34, 35, 36, 36, 36, 37, 38, 39, 40, 40, 41, 42, 43, 44, 45, 46, 47, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 76, 77, 78, 79, 80, 81, 81, 82, 82, 83, 84, 84, 84, 84, 84, 85, 86, 86, 86, 87, 87, 88, 88, 88, 89, 90, 90, 91, 92, 93, 94, 95, 95, 96, 97, 97, 98, 99, 99, 100, 101, 102, 103, 104, 105, 105, 106, 107, 107, 108, 108, 109, 110, 111, 111, 112, 113, 114, 115, 115, 115, 116, 116, 117, 117, 117, 117, 118, 118, 119, 120, 120, 121, 122, 122, 123, 123, 123, 123, 124, 125, 126, 127, 127, 128, 129, 130, 131, 132, 132, 133, 134, 135, 136, 137, 137, 138, 138, 138, 139, 140, 140, 141, 142, 142, 143, 144, 144, 144, 145, 145, 145, 145, 145, 145, 145, 146, 146, 146, 147, 148, 148, 149, 149, 150, 151, 152, 152, 153, 154, 155, 155, 156, 157, 158, 158, 159, 160, 161, 162, 162, 162, 163, 163, 164, 165, 165, 165, 165, 165, 165, 166, 166, 167, 167, 167, 167, 167, 167, 168, 168, 168, 168, 168, 169, 170, 170, 170, 170, 170, 171, 172, 173, 173, 174, 174, 175, 175, 175, 175, 176, 176, 177, 177, 177, 177, 178, 178, 178, 178, 178, 178, 178, 178, 179, 179, 179, 180, 180, 180, 180, 180, 180, 181, 181, 181, 181, 181, 182, 182, 182, 182, 182, 183, 183, 183, 183, 183, 184, 184, 185, 185, 185, 186, 187, 187, 188, 188, 189, 190, 191, 191, 191, 191, 191, 192, 193, 193, 193, 194, 194, 194, 195, 196, 196, 197, 198, 198, 199, 199, 199, 200, 201, 201, 201, 201, 202, 203, 204, 204, 204, 204, 205, 206, 207, 207, 208, 208, 209, 209, 210, 211, 211, 212, 213, 213, 214, 214, 214, 214, 215, 216, 216, 216, 216, 217, 217, 218, 218, 218, 218, 219, 219, 219, 219, 219, 219, 219, 220, 220, 220, 220, 220, 220, 220, 220, 220, 220, 221, 221, 221, 221, 221, 221, 221, 221, 222, 222, 222, 222, 222, 222, 223, 223, 223, 223, 223, 224, 224, 224, 224, 224, 224, 224, 224, 224, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 225, 226, 226, 227, 227, 227, 227, 228, 228, 229, 229, 229, 229, 229, 229, 230, 230, 230, 230, 230, 230, 230, 230, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 231, 232, 232, 232, 232, 232, 232, 233, 233, 233, 233, 233, 233, 233, 234, 235, 235, 236, 236, 237, 237, 237, 237, 237, 237, 237, 237, 238, 239, 239, 239, 240, 240, 240, 240, 240, 240, 240, 240, 240, 240, 240, 240, 240, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 241, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 242, 243, 243, 243, 243, 243, 243, 244, 245, 245, 245, 245, 245, 245, 245, 245, 245, 245, 245, 245, 245, 246, 246, 246, 246, 246, 246, 246, 246, 247, 247, 247, 247, 247, 248, 248, 248, 248, 248, 248, 248, 249, 249, 249, 249, 249, 249, 250, 250, 250, 250, 250, 250, 250, 250, 250, 250, 250, 250, 250, 250, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 251, 250, 251, 251, 251, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 254, 254, 254, 255, 255, 255, 255, 255, 255, 256, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 257, 258, 258, 258, 259, 259, 259, 259, 260, 260, 260, 260, 260, 260, 261, 261, 261, 261, 261, 261, 262, 262, 262, 262, 262, 262, 262, 262, 262, 263, 263, 263, 263, 263, 263, 263, 263, 263, 263, 263, 264, 264, 264, 264, 264, 264, 265, 265, 265, 265, 265, 265, 266, 266, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 267, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 268, 269, 269, 269, 269, 269, 269, 269, 269, 269, 269, 269, 269, 270, 270, 270, 270, 270, 271, 272, 272, 272, 272, 272, 272, 273, 273, 273, 273, 273, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 274, 275, 275, 275, 275, 275, 275, 276, 276, 276, 276, 276, 276, 277, 277, 277, 278, 278, 278, 279, 279, 279, 280, 280, 280, 280, 280, 280, 280, 280, 280, 280, 280, 280, 281, 281, 281, 281, 281, 281, 281, 281, 281, 281, 282, 282, 283, 283, 283, 283, 283, 283, 283, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 284, 285, 285, 285, 286, 287, 287, 288, 288, 288, 288, 288, 288, 288, 289, 289, 289, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 290, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 291, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 292, 293, 293, 293, 294, 294, 294, 294, 294, 294, 295, 295, 295, 296, 296, 296, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 297, 298, 298, 298, 298, 298, 298, 298, 298, 298, 298, 298, 298, 298, 299, 299, 299, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 300, 301, 301, 301, 301, 301, 301, 302, 302, 302, 303, 303, 303, 303, 303, 303, 303, 303, 303, 303, 303, 303, 303, 304, 304, 304, 304, 304, 304, 304, 304, 304, 304, 304, 304, 304, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 305, 306, 306, 306, 306, 306, 306, 306, 307, 307, 307, 307, 307, 307, 307, 308, 308, 308, 308, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 309, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 310, 311, 311, 311, 311, 311, 311, 312, 312, 312, 312, 312, 312, 313, 313, 313, 313, 313, 313, 313, 313, 313, 313, 314, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 315, 316, 316, 316, 316, 316, 316, 317, 317, 317, 317, 317, 317, 318, 318, 318, 318, 318, 318, 318, 318, 319, 319, 319, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 320, 321, 321, 322, 322, 322, 322, 322, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 323, 324, 324, 324, 324, 324, 324, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 325, 326, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 327, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 328, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 329, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 330, 331, 331, 331, 331, 331, 331, 331, 331, 332, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 333, 334, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 335, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 336, 337, 337, 337, 337, 337, 337, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 338, 339, 339, 339, 339, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 340, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 341, 342, 342, 342, 342, 342, 342, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 343, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 344, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 345, 346, 346, 346, 346, 346, 346, 347, 347, 347, 347, 347, 348, 348, 348, 348, 348, 348, 348, 348, 348, 348, 348, 348, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 349, 350, 350, 350, 350, 350, 351, 352, 352, 352, 352, 352, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 353, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 354, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 355, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 356, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 357, 358, 358, 358, 358, 358, 358, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 359, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 360, 361, 361, 361, 361, 361, 361, 361, 361, 361, 362, 362, 362, 362, 362, 362, 362, 362, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 363, 364, 364, 364, 364, 364, 364, 365, 365, 365]</t>
-        </is>
+        <v>0.06939918001726056</v>
+      </c>
+      <c r="F20" t="n">
+        <v>97</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.09356593558063611</v>
+        <v>0.09190080827575543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3862993571481166</v>
+        <v>0.3900228364118908</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0843553398018424</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4]</t>
-        </is>
+        <v>0.08787748244149614</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, e\_utility: 0.05, lambda1: 0.75, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -1055,18 +1043,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.07188263262975679</v>
+        <v>0.0655831697456741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2967769691252469</v>
+        <v>0.2783319795005367</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05774535832316861</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 2, 2, 2, 3, 3, 3, 4, 4, 4, 5, 5, 5, 6, 6, 6, 7, 7, 7, 7, 8, 8, 9, 9, 9, 10, 10, 10, 10, 11, 11, 11, 11, 12, 12, 12, 12, 12, 12, 12, 12, 12, 13, 13, 13, 14, 14, 14, 15, 15, 15, 15, 16, 16, 16, 16, 17, 17, 17, 17, 18, 18, 18, 18, 19, 19, 20, 20, 20, 21, 21, 21, 22, 22, 22, 22, 23, 23, 23, 24, 24, 24, 24, 25, 25, 25, 26, 26, 26, 27, 27, 28, 28, 28, 29, 29, 29, 29, 30, 30, 30, 31, 31, 32, 32, 32, 33, 33, 33, 33, 34, 34, 34, 34, 35, 35, 35, 35, 35, 35, 36, 36, 37, 37, 38, 38, 35, 35, 34, 34, 34, 34, 34, 34, 34, 34, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33]</t>
-        </is>
+        <v>0.05792271005974405</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1084,22 +1070,240 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.09713218391034799</v>
+        <v>0.09323232942942825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4010230857000636</v>
+        <v>0.3956737514238636</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08613952126635439</v>
+        <v>0.08661395468704147</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: prod, rules: 6 \\</t>
-        </is>
-      </c>
+          <t>fuzzy\_operator: prod, rules: 14 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NTSK-RLS</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09108268370565414</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3865507530716473</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.08462175242626373</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NTSK-wRLS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0909134144494438</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3858323820729244</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.08640139335639047</v>
+      </c>
+      <c r="F25" t="n">
+        <v>19</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 19 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GEN-NMR</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09465329932879776</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4017042828305632</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08857724751598303</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>error\_metric: CPPM, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 10 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GEN-NTSK-RLS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0953163462400467</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.404518223663635</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.08797329323477895</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: prod, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GEN-NTSK-wRLS</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.09581641733477575</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.406640502568828</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.09041512946034724</v>
+      </c>
+      <c r="F28" t="n">
+        <v>19</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 5 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R-NMR</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09615143215392755</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4080622901728449</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.08950606559667046</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>combination: median, n\_estimators: 50 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R-NTSK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.09168813989541952</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3891202815109061</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.08704077972568056</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>combination: median, n\_estimators: 50 \\</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RF-NTSK</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07007764857709547</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2974063425547147</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.06531736145255813</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
